--- a/_rdataviz/2023-08-10-ghanas-population-pyramid-2020/ghana.xlsx
+++ b/_rdataviz/2023-08-10-ghanas-population-pyramid-2020/ghana.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1677DAEB-DB1C-4404-AEB7-BF8503C3F9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7047E1BF-6029-4867-AE3B-B4899367DC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,56 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'d3093f4e-ecad-4f99-af13-15471ea1a458'"</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2000 - 2020'!$I$1:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2000 - 2020'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
-  <si>
-    <t>AREA_NAME</t>
-  </si>
-  <si>
-    <t>GEO_CONCAT</t>
-  </si>
-  <si>
-    <t>GEO_MATCH</t>
-  </si>
-  <si>
-    <t>CNTRY_NAME</t>
-  </si>
-  <si>
-    <t>ADM1_NAME</t>
-  </si>
-  <si>
-    <t>ADM2_NAME</t>
-  </si>
-  <si>
-    <t>ADM3_NAME</t>
-  </si>
-  <si>
-    <t>ADM4_NAME</t>
-  </si>
-  <si>
-    <t>ADM_LEVEL</t>
-  </si>
-  <si>
-    <t>USCBCMNT</t>
-  </si>
-  <si>
-    <t>GENC_CODE</t>
-  </si>
-  <si>
-    <t>FIPS_CODE</t>
-  </si>
-  <si>
-    <t>NSO_CODE</t>
-  </si>
-  <si>
-    <t>NSO_NAME</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>BTOTL_2020</t>
   </si>
@@ -223,30 +181,6 @@
   </si>
   <si>
     <t>F80PL_2020</t>
-  </si>
-  <si>
-    <t>Area names in column A, table headers in row 4</t>
-  </si>
-  <si>
-    <t>Ghana: 5-year age group population estimates by sex for 2000 - 2020</t>
-  </si>
-  <si>
-    <t>Population estimates are rounded to the nearest whole number</t>
-  </si>
-  <si>
-    <t>GHANA</t>
-  </si>
-  <si>
-    <t>GH</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>GHA_0</t>
   </si>
 </sst>
 </file>
@@ -307,34 +241,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -649,557 +562,346 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BP5"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="10" zoomScalePageLayoutView="10" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="68" width="12.7265625" style="1" customWidth="1"/>
+    <col min="1" max="54" width="12.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" t="s">
-        <v>73</v>
+    <row r="1" spans="1:54" ht="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:68" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH4" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI4" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP4" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:68" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="11">
+    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>29340248</v>
       </c>
-      <c r="P5" s="11">
+      <c r="B3" s="4">
         <v>4029284</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="C3" s="4">
         <v>3664007</v>
       </c>
-      <c r="R5" s="11">
+      <c r="D3" s="4">
         <v>3292584</v>
       </c>
-      <c r="S5" s="11">
+      <c r="E3" s="4">
         <v>2909316</v>
       </c>
-      <c r="T5" s="11">
+      <c r="F3" s="4">
         <v>2560766</v>
       </c>
-      <c r="U5" s="11">
+      <c r="G3" s="4">
         <v>2246492</v>
       </c>
-      <c r="V5" s="11">
+      <c r="H3" s="4">
         <v>2052724</v>
       </c>
-      <c r="W5" s="11">
+      <c r="I3" s="4">
         <v>1837652</v>
       </c>
-      <c r="X5" s="11">
+      <c r="J3" s="4">
         <v>1520856</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="K3" s="4">
         <v>1296147</v>
       </c>
-      <c r="Z5" s="11">
+      <c r="L3" s="4">
         <v>1100073</v>
       </c>
-      <c r="AA5" s="11">
+      <c r="M3" s="4">
         <v>863727</v>
       </c>
-      <c r="AB5" s="11">
+      <c r="N3" s="4">
         <v>664547</v>
       </c>
-      <c r="AC5" s="11">
+      <c r="O3" s="4">
         <v>506475</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="P3" s="4">
         <v>353363</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="Q3" s="4">
         <v>232708</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="R3" s="4">
         <v>209527</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="S3" s="4">
         <v>14460542</v>
       </c>
-      <c r="AH5" s="11">
+      <c r="T3" s="4">
         <v>2033091</v>
       </c>
-      <c r="AI5" s="11">
+      <c r="U3" s="4">
         <v>1841648</v>
       </c>
-      <c r="AJ5" s="11">
+      <c r="V3" s="4">
         <v>1650193</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="W3" s="4">
         <v>1449384</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="X3" s="4">
         <v>1268097</v>
       </c>
-      <c r="AM5" s="11">
+      <c r="Y3" s="4">
         <v>1104158</v>
       </c>
-      <c r="AN5" s="11">
+      <c r="Z3" s="4">
         <v>995918</v>
       </c>
-      <c r="AO5" s="11">
+      <c r="AA3" s="4">
         <v>889026</v>
       </c>
-      <c r="AP5" s="11">
+      <c r="AB3" s="4">
         <v>727987</v>
       </c>
-      <c r="AQ5" s="11">
+      <c r="AC3" s="4">
         <v>623384</v>
       </c>
-      <c r="AR5" s="11">
+      <c r="AD3" s="4">
         <v>535512</v>
       </c>
-      <c r="AS5" s="11">
+      <c r="AE3" s="4">
         <v>423832</v>
       </c>
-      <c r="AT5" s="11">
+      <c r="AF3" s="4">
         <v>319925</v>
       </c>
-      <c r="AU5" s="11">
+      <c r="AG3" s="4">
         <v>240698</v>
       </c>
-      <c r="AV5" s="11">
+      <c r="AH3" s="4">
         <v>164190</v>
       </c>
-      <c r="AW5" s="11">
+      <c r="AI3" s="4">
         <v>104690</v>
       </c>
-      <c r="AX5" s="11">
+      <c r="AJ3" s="4">
         <v>88809</v>
       </c>
-      <c r="AY5" s="11">
+      <c r="AK3" s="4">
         <v>14879706</v>
       </c>
-      <c r="AZ5" s="11">
+      <c r="AL3" s="4">
         <v>1996193</v>
       </c>
-      <c r="BA5" s="11">
+      <c r="AM3" s="4">
         <v>1822359</v>
       </c>
-      <c r="BB5" s="11">
+      <c r="AN3" s="4">
         <v>1642391</v>
       </c>
-      <c r="BC5" s="11">
+      <c r="AO3" s="4">
         <v>1459932</v>
       </c>
-      <c r="BD5" s="11">
+      <c r="AP3" s="4">
         <v>1292669</v>
       </c>
-      <c r="BE5" s="11">
+      <c r="AQ3" s="4">
         <v>1142334</v>
       </c>
-      <c r="BF5" s="11">
+      <c r="AR3" s="4">
         <v>1056806</v>
       </c>
-      <c r="BG5" s="11">
+      <c r="AS3" s="4">
         <v>948626</v>
       </c>
-      <c r="BH5" s="11">
+      <c r="AT3" s="4">
         <v>792869</v>
       </c>
-      <c r="BI5" s="11">
+      <c r="AU3" s="4">
         <v>672763</v>
       </c>
-      <c r="BJ5" s="11">
+      <c r="AV3" s="4">
         <v>564561</v>
       </c>
-      <c r="BK5" s="11">
+      <c r="AW3" s="4">
         <v>439895</v>
       </c>
-      <c r="BL5" s="11">
+      <c r="AX3" s="4">
         <v>344622</v>
       </c>
-      <c r="BM5" s="11">
+      <c r="AY3" s="4">
         <v>265777</v>
       </c>
-      <c r="BN5" s="11">
+      <c r="AZ3" s="4">
         <v>189173</v>
       </c>
-      <c r="BO5" s="11">
+      <c r="BA3" s="4">
         <v>128018</v>
       </c>
-      <c r="BP5" s="11">
+      <c r="BB3" s="4">
         <v>120718</v>
       </c>
     </row>
